--- a/data/outputs/OR/42.xlsx
+++ b/data/outputs/OR/42.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ119"/>
+  <dimension ref="A1:BR119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2979581</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1329,6 +1340,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>3913157</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1548,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>3059650</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1735,6 +1756,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1960,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2149,6 +2172,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2352,6 +2376,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2559,6 +2584,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2770,6 +2796,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2993,6 +3020,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3196,6 +3224,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3399,6 +3428,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3606,6 +3636,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3817,6 +3848,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4020,6 +4052,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4227,6 +4260,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4430,6 +4464,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4633,6 +4668,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4836,6 +4872,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5039,6 +5076,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5246,6 +5284,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5457,6 +5496,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5660,6 +5700,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5855,6 +5896,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6066,6 +6108,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6277,6 +6320,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6488,6 +6532,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6699,6 +6744,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6902,6 +6948,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7097,6 +7144,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7304,6 +7352,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7511,6 +7560,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7722,6 +7772,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3256674</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7925,6 +7980,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8140,6 +8196,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8351,6 +8408,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8550,6 +8608,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4527574</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8761,6 +8824,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8980,6 +9044,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9183,6 +9248,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9394,6 +9460,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9605,6 +9672,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3396833</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9820,6 +9892,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>2633018</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10023,6 +10100,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10230,6 +10308,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4503549</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10441,6 +10524,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10636,6 +10720,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10839,6 +10924,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11050,6 +11136,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4074392</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11261,6 +11352,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11460,6 +11552,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11655,6 +11748,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11866,6 +11960,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12077,6 +12172,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12280,6 +12376,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12479,6 +12576,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12678,6 +12776,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12885,6 +12984,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13080,6 +13180,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4093952</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13283,6 +13388,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13486,6 +13592,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13697,6 +13804,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13908,6 +14016,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14115,6 +14224,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14318,6 +14428,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14521,6 +14632,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14732,6 +14844,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14947,6 +15060,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15154,6 +15268,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15365,6 +15480,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3926939</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15568,6 +15688,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>1643857</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15787,6 +15912,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15998,6 +16124,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16201,6 +16328,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16412,6 +16540,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16627,6 +16756,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16830,6 +16960,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>2968051</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17045,6 +17180,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4788637</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17244,6 +17384,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4082180</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17443,6 +17588,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17638,6 +17784,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17841,6 +17988,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18036,6 +18184,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18247,6 +18396,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18450,6 +18600,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18653,6 +18804,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18852,6 +19004,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19047,6 +19200,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19246,6 +19400,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19461,6 +19616,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19668,6 +19824,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19871,6 +20028,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20074,6 +20232,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>2735737</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20289,6 +20452,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20500,6 +20664,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20715,6 +20880,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20914,6 +21080,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21125,6 +21292,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21328,6 +21496,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21531,6 +21700,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21742,6 +21912,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21945,6 +22116,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22148,6 +22320,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22351,6 +22524,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22558,6 +22732,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22757,6 +22932,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22960,6 +23136,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4051898</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23163,6 +23344,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>4100816</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23370,6 +23556,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23577,6 +23764,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>4545491</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23772,6 +23964,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23983,6 +24176,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24182,6 +24376,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24389,6 +24584,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24604,6 +24800,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24807,6 +25004,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25014,6 +25212,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
